--- a/docs/shopping/shopping.xlsx
+++ b/docs/shopping/shopping.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-humidity-controller\docs\shopping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-Humidistat\docs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD04C74-6413-46E8-923B-089BF8F0D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74C4C0-6642-4B21-BC22-414ED78D0F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41385" yWindow="6405" windowWidth="20925" windowHeight="14100" xr2:uid="{8FFF4AC1-5088-4106-856A-FB17EEEF2935}"/>
+    <workbookView xWindow="528" yWindow="2016" windowWidth="23568" windowHeight="15540" xr2:uid="{8FFF4AC1-5088-4106-856A-FB17EEEF2935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1585,10 +1587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F8C51-D471-4274-806B-2A684D5C88A7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,7 +1746,7 @@
     <hyperlink ref="E89" r:id="rId14" xr:uid="{E9024BE2-D27D-41D4-A84F-BCECB20B6CB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup scale="48" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
   <drawing r:id="rId16"/>
 </worksheet>
 </file>